--- a/net/sunny数据接口-v2.xlsx
+++ b/net/sunny数据接口-v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A577201A-911E-45C9-98E0-13B30607C6E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14081A86-0440-4DFE-8ECC-B74525E0E5AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="175">
   <si>
     <t>string name, int categoryId, int page, int pageSize</t>
   </si>
@@ -637,7 +637,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -678,7 +678,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -687,7 +687,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -725,10 +725,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1016,7 +1016,7 @@
   <dimension ref="A2:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1599,7 @@
       <c r="B89" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D89" t="s">
@@ -1635,7 +1635,7 @@
       <c r="B92" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D92" t="s">
@@ -1719,19 +1719,19 @@
       <c r="A4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1740,33 +1740,33 @@
       <c r="B5" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1775,33 +1775,33 @@
       <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1810,33 +1810,33 @@
       <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1845,33 +1845,33 @@
       <c r="B11" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1880,33 +1880,33 @@
       <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1915,33 +1915,33 @@
       <c r="B15" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1950,33 +1950,33 @@
       <c r="B17" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1985,101 +1985,101 @@
       <c r="B19" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2089,33 +2089,33 @@
         <f>MID(A26,FIND(" ",A26)+1,100)</f>
         <v>username</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2125,33 +2125,33 @@
         <f t="shared" ref="B28:B42" si="0">MID(A28,FIND(" ",A28)+1,100)</f>
         <v>password</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">

--- a/net/sunny数据接口-v2.xlsx
+++ b/net/sunny数据接口-v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14081A86-0440-4DFE-8ECC-B74525E0E5AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D4B5E-EE6B-4BA8-896B-1DA32AA60234}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="175">
-  <si>
-    <t>string name, int categoryId, int page, int pageSize</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="176">
   <si>
     <t>api/BaseInfo/GetCampus</t>
   </si>
@@ -136,9 +133,6 @@
   </si>
   <si>
     <t>api/product/get</t>
-  </si>
-  <si>
-    <t>api/product/getlist</t>
   </si>
   <si>
     <t>int id</t>
@@ -646,6 +640,18 @@
       </rPr>
       <t>（默认情况下token就是openid）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/product/getlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string name, int categoryId, int page, int pageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name模糊查询商品名字，categoryId商品分类的id，page页码 ，pageSize每页数据条数，name为空表示不过滤商品名字，categoryId为0表示不过滤分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,11 +732,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1030,643 +1036,647 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
         <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
         <v>87</v>
       </c>
-      <c r="C75" t="s">
-        <v>89</v>
-      </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
         <v>88</v>
       </c>
-      <c r="C76" t="s">
-        <v>90</v>
-      </c>
       <c r="D76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" t="s">
         <v>149</v>
-      </c>
-      <c r="B82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1696,466 +1706,466 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" t="str">
         <f>MID(A26,FIND(" ",A26)+1,100)</f>
         <v>username</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ref="B28:B42" si="0">MID(A28,FIND(" ",A28)+1,100)</f>
         <v>password</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -2164,12 +2174,12 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -2178,12 +2188,12 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -2192,12 +2202,12 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -2206,12 +2216,12 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -2220,12 +2230,12 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -2234,12 +2244,12 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>

--- a/net/sunny数据接口-v2.xlsx
+++ b/net/sunny数据接口-v2.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D4B5E-EE6B-4BA8-896B-1DA32AA60234}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E1CAA-89A1-4011-8F30-7DE723EE2122}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="209">
   <si>
     <t>api/BaseInfo/GetCampus</t>
   </si>
@@ -654,12 +655,117 @@
     <t>name模糊查询商品名字，categoryId商品分类的id，page页码 ，pageSize每页数据条数，name为空表示不过滤商品名字，categoryId为0表示不过滤分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>string user_name</t>
+  </si>
+  <si>
+    <t>订单实际需要支付的总金额</t>
+  </si>
+  <si>
+    <t>decimal money</t>
+  </si>
+  <si>
+    <t>优惠券信息</t>
+  </si>
+  <si>
+    <t>收货人信息</t>
+  </si>
+  <si>
+    <t>int receiverid</t>
+  </si>
+  <si>
+    <t>留言</t>
+  </si>
+  <si>
+    <t>string message</t>
+  </si>
+  <si>
+    <t>送货方式</t>
+  </si>
+  <si>
+    <t>int deliverid</t>
+  </si>
+  <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>float freight</t>
+  </si>
+  <si>
+    <t>商品信息</t>
+  </si>
+  <si>
+    <t>int prouduct_id</t>
+  </si>
+  <si>
+    <t>int count</t>
+  </si>
+  <si>
+    <t>规格编号</t>
+  </si>
+  <si>
+    <t>string plan_code</t>
+  </si>
+  <si>
+    <t>原始价格</t>
+  </si>
+  <si>
+    <t>decimal plan_price</t>
+  </si>
+  <si>
+    <t>折扣后价格</t>
+  </si>
+  <si>
+    <t>decimal price</t>
+  </si>
+  <si>
+    <t>最大教学人数id</t>
+  </si>
+  <si>
+    <t>int type_id</t>
+  </si>
+  <si>
+    <t>场馆id</t>
+  </si>
+  <si>
+    <t>int venue_id</t>
+  </si>
+  <si>
+    <t>int id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int count;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TmpCoupon[] coupons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TmpCoupon</t>
+  </si>
+  <si>
+    <t>List&lt;ProductRequest&gt; products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductRequest</t>
+  </si>
+  <si>
+    <t>订单上传数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见sheet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,8 +806,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +833,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -723,23 +850,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1021,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1173,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1495,7 +1630,9 @@
       <c r="B73" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D73" t="s">
         <v>74</v>
       </c>
@@ -1693,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FA7200-5984-4404-B2EA-9E6AC9C7C6C2}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -1729,19 +1866,19 @@
       <c r="A4" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1750,33 +1887,33 @@
       <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1785,33 +1922,33 @@
       <c r="B7" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1820,33 +1957,33 @@
       <c r="B9" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1855,33 +1992,33 @@
       <c r="B11" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1890,33 +2027,33 @@
       <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1925,33 +2062,33 @@
       <c r="B15" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1960,33 +2097,33 @@
       <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1995,101 +2132,101 @@
       <c r="B19" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2099,33 +2236,33 @@
         <f>MID(A26,FIND(" ",A26)+1,100)</f>
         <v>username</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2135,33 +2272,33 @@
         <f t="shared" ref="B28:B42" si="0">MID(A28,FIND(" ",A28)+1,100)</f>
         <v>password</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2263,4 +2400,184 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE3B78-DBB2-43D6-ABC6-F56547DEE93B}">
+  <dimension ref="A3:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/net/sunny数据接口-v2.xlsx
+++ b/net/sunny数据接口-v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E1CAA-89A1-4011-8F30-7DE723EE2122}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139D6BA-23AE-46F7-8E35-569203AC5596}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="211">
   <si>
     <t>api/BaseInfo/GetCampus</t>
   </si>
@@ -758,6 +758,13 @@
   </si>
   <si>
     <t>见sheet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/student/invations</t>
+  </si>
+  <si>
+    <t>邀请数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,10 +874,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1156,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1180,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1352,6 +1359,17 @@
       </c>
       <c r="E29" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1866,19 +1884,19 @@
       <c r="A4" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1887,33 +1905,33 @@
       <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1922,33 +1940,33 @@
       <c r="B7" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1957,33 +1975,33 @@
       <c r="B9" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1992,33 +2010,33 @@
       <c r="B11" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2027,33 +2045,33 @@
       <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2062,33 +2080,33 @@
       <c r="B15" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2097,33 +2115,33 @@
       <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2132,101 +2150,101 @@
       <c r="B19" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2236,33 +2254,33 @@
         <f>MID(A26,FIND(" ",A26)+1,100)</f>
         <v>username</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2272,33 +2290,33 @@
         <f t="shared" ref="B28:B42" si="0">MID(A28,FIND(" ",A28)+1,100)</f>
         <v>password</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">

--- a/net/sunny数据接口-v2.xlsx
+++ b/net/sunny数据接口-v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139D6BA-23AE-46F7-8E35-569203AC5596}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78446A5-04F1-4EED-9284-6DF33DE5D6E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="218">
   <si>
     <t>api/BaseInfo/GetCampus</t>
   </si>
@@ -555,9 +555,6 @@
   </si>
   <si>
     <t>api/coupon/GetDefault</t>
-  </si>
-  <si>
-    <t>string token, int categoryId</t>
   </si>
   <si>
     <t>优惠券列表</t>
@@ -765,6 +762,39 @@
   </si>
   <si>
     <t>邀请数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取课程的规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/product/coursespecification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string token, int product_id, decimal total_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/coupon/available</t>
+  </si>
+  <si>
+    <t>string token, List&lt;TmpProduct&gt; products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TmpProduct：
+int product_id 商品id
+total_money 单价*数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +897,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -877,6 +907,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1161,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E98"/>
+  <dimension ref="A2:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1189,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1224,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1232,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1240,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1254,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1297,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1358,15 +1394,15 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
@@ -1393,13 +1429,13 @@
         <v>73</v>
       </c>
       <c r="B37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
         <v>173</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1429,7 +1465,7 @@
         <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1443,7 +1479,7 @@
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1510,6 +1546,17 @@
         <v>74</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
@@ -1539,10 +1586,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -1589,10 +1636,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -1649,7 +1696,7 @@
         <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
         <v>74</v>
@@ -1694,7 +1741,7 @@
         <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1765,7 +1812,7 @@
         <v>102</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D89" t="s">
         <v>74</v>
@@ -1801,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D92" t="s">
         <v>74</v>
@@ -1812,9 +1859,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
         <v>151</v>
@@ -1823,18 +1870,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C98" t="s">
-        <v>153</v>
-      </c>
+      <c r="C98" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E99:G102"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F957E4E3-EC5B-4A5C-A3B1-917B42304AEF}"/>
@@ -2435,162 +2516,162 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/net/sunny数据接口-v2.xlsx
+++ b/net/sunny数据接口-v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78446A5-04F1-4EED-9284-6DF33DE5D6E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BACC590-EFB8-4D56-A9F1-267647FDDD66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="222">
   <si>
     <t>api/BaseInfo/GetCampus</t>
   </si>
@@ -795,6 +795,20 @@
     <t>TmpProduct：
 int product_id 商品id
 total_money 单价*数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/wxpay/prepay</t>
+  </si>
+  <si>
+    <t>string orderId, string openId</t>
+  </si>
+  <si>
+    <t>再次支付时获取支付参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单时会自动调用一次，有效时间45分钟，过期后支付时请再调用此接口获取支付参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,14 +919,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1197,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G102"/>
+  <dimension ref="A2:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1650,7 +1664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -1661,7 +1675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -1672,12 +1686,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>89</v>
       </c>
@@ -1688,7 +1702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -1702,7 +1716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -1713,7 +1727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -1744,61 +1758,72 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" t="s">
-        <v>148</v>
-      </c>
-      <c r="E81" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="E82" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
@@ -1806,35 +1831,35 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D89" t="s">
-        <v>74</v>
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" t="s">
-        <v>20</v>
+        <v>102</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
         <v>20</v>
@@ -1842,79 +1867,90 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>107</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>153</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>151</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E100" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E99:G102"/>
+    <mergeCell ref="E100:G103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1965,19 +2001,19 @@
       <c r="A4" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1986,33 +2022,33 @@
       <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2021,33 +2057,33 @@
       <c r="B7" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2056,33 +2092,33 @@
       <c r="B9" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2091,33 +2127,33 @@
       <c r="B11" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2126,33 +2162,33 @@
       <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2161,33 +2197,33 @@
       <c r="B15" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2196,33 +2232,33 @@
       <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2231,101 +2267,101 @@
       <c r="B19" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2335,33 +2371,33 @@
         <f>MID(A26,FIND(" ",A26)+1,100)</f>
         <v>username</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2371,33 +2407,33 @@
         <f t="shared" ref="B28:B42" si="0">MID(A28,FIND(" ",A28)+1,100)</f>
         <v>password</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">

--- a/net/sunny数据接口-v2.xlsx
+++ b/net/sunny数据接口-v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BACC590-EFB8-4D56-A9F1-267647FDDD66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526368D0-FB48-4291-94E6-374F29FC32C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="224">
   <si>
     <t>api/BaseInfo/GetCampus</t>
   </si>
@@ -810,6 +810,12 @@
   <si>
     <t>创建订单时会自动调用一次，有效时间45分钟，过期后支付时请再调用此接口获取支付参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类id</t>
+  </si>
+  <si>
+    <t>int category_id</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -2539,10 +2545,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE3B78-DBB2-43D6-ABC6-F56547DEE93B}">
-  <dimension ref="A3:A39"/>
+  <dimension ref="A3:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2710,6 +2716,16 @@
         <v>199</v>
       </c>
     </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/net/sunny数据接口-v2.xlsx
+++ b/net/sunny数据接口-v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526368D0-FB48-4291-94E6-374F29FC32C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6D40B8-17AB-442C-921F-F1B01AB7AC88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="224">
   <si>
     <t>api/BaseInfo/GetCampus</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>int classId</t>
-  </si>
-  <si>
-    <t>string token, short state</t>
   </si>
   <si>
     <t>取单个课程</t>
@@ -574,12 +571,6 @@
   <si>
     <t>0学生1教练</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0未上课 1已上课 2已评价</t>
-  </si>
-  <si>
-    <t>0未上课 1已上课 2教练已评价</t>
   </si>
   <si>
     <t>0未支付1已支付2已发货3已收货4已评价</t>
@@ -816,6 +807,18 @@
   </si>
   <si>
     <t>int category_id</t>
+  </si>
+  <si>
+    <t>string token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教练证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/coach/img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1219,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1245,13 +1248,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1280,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1296,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1310,7 +1313,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1353,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1372,10 +1375,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1389,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1405,7 +1408,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -1414,15 +1417,15 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
@@ -1446,16 +1449,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1465,7 +1468,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -1476,35 +1479,29 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -1515,7 +1512,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -1526,21 +1523,21 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -1549,45 +1546,45 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
         <v>139</v>
       </c>
-      <c r="C50" t="s">
-        <v>140</v>
-      </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -1595,21 +1592,21 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -1617,10 +1614,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -1628,38 +1625,38 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -1667,67 +1664,67 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
@@ -1735,48 +1732,48 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -1788,48 +1785,48 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" t="s">
         <v>148</v>
-      </c>
-      <c r="E82" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
         <v>96</v>
       </c>
-      <c r="C83" t="s">
-        <v>97</v>
-      </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
@@ -1837,10 +1834,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
@@ -1848,21 +1845,21 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
         <v>33</v>
@@ -1873,7 +1870,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
         <v>34</v>
@@ -1884,29 +1881,40 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
         <v>35</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
@@ -1914,27 +1922,27 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -1984,31 +1992,31 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2023,10 +2031,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2042,7 +2050,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2058,10 +2066,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2077,7 +2085,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2093,10 +2101,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2112,7 +2120,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2131,7 +2139,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2147,7 +2155,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2163,10 +2171,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2182,7 +2190,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2198,10 +2206,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2217,7 +2225,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2233,10 +2241,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -2252,7 +2260,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -2268,10 +2276,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -2339,7 +2347,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -2355,7 +2363,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -2371,7 +2379,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" t="str">
         <f>MID(A26,FIND(" ",A26)+1,100)</f>
@@ -2391,7 +2399,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -2407,7 +2415,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ref="B28:B42" si="0">MID(A28,FIND(" ",A28)+1,100)</f>
@@ -2427,7 +2435,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2443,7 +2451,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -2452,12 +2460,12 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -2466,12 +2474,12 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -2480,12 +2488,12 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -2494,12 +2502,12 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -2508,12 +2516,12 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -2522,12 +2530,12 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -2547,7 +2555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFE3B78-DBB2-43D6-ABC6-F56547DEE93B}">
   <dimension ref="A3:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -2558,172 +2566,172 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
